--- a/target/test-classes/data.xlsx
+++ b/target/test-classes/data.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304141\eclipse-workspace\Hackathon2304141\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304141\Downloads\Hackathon\Hackathon\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE2B2A-5BE3-47FF-8204-FFA5D93E37BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED0F475-E773-465B-87BD-C8FAAF871534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,180 +28,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
   <si>
     <t>displays the first five Doctors</t>
   </si>
   <si>
-    <t>doctor_name</t>
-  </si>
-  <si>
-    <t>doctor_experience</t>
-  </si>
-  <si>
-    <t>doctor_clinic_name</t>
+    <t>displays the Surgeries list</t>
+  </si>
+  <si>
+    <t>form inputs</t>
+  </si>
+  <si>
+    <t>form validation</t>
+  </si>
+  <si>
+    <t>button in (invalid-email)</t>
+  </si>
+  <si>
+    <t>button in (valid-email)</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>patro</t>
+  </si>
+  <si>
+    <t>John@gmaicom</t>
+  </si>
+  <si>
+    <t>John@gmail.com</t>
+  </si>
+  <si>
+    <t>Piles</t>
+  </si>
+  <si>
+    <t>Hernia Treatment</t>
+  </si>
+  <si>
+    <t>Kidney Stone</t>
+  </si>
+  <si>
+    <t>Cataract</t>
+  </si>
+  <si>
+    <t>Circumcision</t>
+  </si>
+  <si>
+    <t>Lasik</t>
+  </si>
+  <si>
+    <t>Varicose Veins</t>
+  </si>
+  <si>
+    <t>Gallstone</t>
+  </si>
+  <si>
+    <t>Anal Fistula</t>
+  </si>
+  <si>
+    <t>Gynaecomastia</t>
+  </si>
+  <si>
+    <t>Anal Fissure</t>
+  </si>
+  <si>
+    <t>Lipoma Removal</t>
+  </si>
+  <si>
+    <t>Sebaceous cyst</t>
+  </si>
+  <si>
+    <t>Pilonidal Sinus</t>
+  </si>
+  <si>
+    <t>Lump in Breast</t>
+  </si>
+  <si>
+    <t>TURP</t>
+  </si>
+  <si>
+    <t>Hydrocele</t>
+  </si>
+  <si>
+    <t>Knee Replacement</t>
+  </si>
+  <si>
+    <t>Hair Transplant</t>
+  </si>
+  <si>
+    <t>Dr. Ganesh Nallur Shivu</t>
+  </si>
+  <si>
+    <t>23 years experience overall</t>
+  </si>
+  <si>
+    <t>Kauvery Hospitals</t>
+  </si>
+  <si>
+    <t>₹900</t>
+  </si>
+  <si>
+    <t>Available Tomorrow</t>
+  </si>
+  <si>
+    <t>Dr. Jai Babu</t>
+  </si>
+  <si>
+    <t>21 years experience overall</t>
+  </si>
+  <si>
+    <t>Altius Hospitals</t>
+  </si>
+  <si>
+    <t>₹1000</t>
+  </si>
+  <si>
+    <t>Apollo Hospital</t>
+  </si>
+  <si>
+    <t>Dr. Sunil Kumar S</t>
+  </si>
+  <si>
+    <t>20 years experience overall</t>
+  </si>
+  <si>
+    <t>Manipal Hospital</t>
+  </si>
+  <si>
+    <t>Schedule a demo button is enabled</t>
+  </si>
+  <si>
+    <t>Dr. Jayaranganath M</t>
+  </si>
+  <si>
+    <t>36 years experience overall</t>
+  </si>
+  <si>
+    <t>Apollo Hospitals</t>
+  </si>
+  <si>
+    <t>₹950</t>
+  </si>
+  <si>
+    <t>Dr. C.M Nagesh</t>
+  </si>
+  <si>
+    <t>25 years experience overall</t>
+  </si>
+  <si>
+    <t>Schedule a demo button is disabled</t>
+  </si>
+  <si>
+    <t>Dr. G Vivek</t>
+  </si>
+  <si>
+    <t>Dr. Ravindranath Reddy D.R</t>
+  </si>
+  <si>
+    <t>18 years experience overall</t>
+  </si>
+  <si>
+    <t>BGS Gleneagles Global Hospital</t>
+  </si>
+  <si>
+    <t>₹800</t>
+  </si>
+  <si>
+    <t>Dr. Abhijit Vilas Kulkarni</t>
+  </si>
+  <si>
+    <t>22 years experience overall</t>
+  </si>
+  <si>
+    <t>Apollo Spectra Hospitals</t>
+  </si>
+  <si>
+    <t>₹500</t>
+  </si>
+  <si>
+    <t>Dr. Sanjay Bhat</t>
   </si>
   <si>
     <t>14 years experience overall</t>
   </si>
   <si>
-    <t>25 years experience overall</t>
-  </si>
-  <si>
-    <t>Dr. M Sudhakar Rao</t>
-  </si>
-  <si>
-    <t>Apollo Clinic</t>
-  </si>
-  <si>
-    <t>Dr. Chandan Saurav Mahapatro</t>
-  </si>
-  <si>
-    <t>9 years experience overall</t>
-  </si>
-  <si>
-    <t>Manipal Hospital</t>
-  </si>
-  <si>
-    <t>Dr. Murali Krishna</t>
-  </si>
-  <si>
-    <t>Manipal Hospitals Old Airport Road</t>
-  </si>
-  <si>
-    <t>Dr. Soorampally Vijay</t>
-  </si>
-  <si>
-    <t>10 years experience overall</t>
-  </si>
-  <si>
-    <t>Trilife Hospital</t>
-  </si>
-  <si>
-    <t>Dr. Rahul Patil</t>
-  </si>
-  <si>
-    <t>15 years experience overall</t>
-  </si>
-  <si>
-    <t>United Hospital</t>
-  </si>
-  <si>
-    <t>consultation_fee</t>
-  </si>
-  <si>
-    <t>availability_text</t>
-  </si>
-  <si>
-    <t>displays the Surgeries list</t>
-  </si>
-  <si>
-    <t>Piles</t>
-  </si>
-  <si>
-    <t>Hernia Treatment</t>
-  </si>
-  <si>
-    <t>Kidney Stone</t>
-  </si>
-  <si>
-    <t>Cataract</t>
-  </si>
-  <si>
-    <t>Circumcision</t>
-  </si>
-  <si>
-    <t>Lasik</t>
-  </si>
-  <si>
-    <t>Varicose Veins</t>
-  </si>
-  <si>
-    <t>Gallstone</t>
-  </si>
-  <si>
-    <t>Anal Fistula</t>
-  </si>
-  <si>
-    <t>Gynaecomastia</t>
-  </si>
-  <si>
-    <t>Anal Fissure</t>
-  </si>
-  <si>
-    <t>Lipoma Removal</t>
-  </si>
-  <si>
-    <t>Sebaceous cyst</t>
-  </si>
-  <si>
-    <t>Pilonidal Sinus</t>
-  </si>
-  <si>
-    <t>Lump in Breast</t>
-  </si>
-  <si>
-    <t>TURP</t>
-  </si>
-  <si>
-    <t>Hydrocele</t>
-  </si>
-  <si>
-    <t>Knee Replacement</t>
-  </si>
-  <si>
-    <t>Hair Transplant</t>
-  </si>
-  <si>
-    <t>Dr. Ganesh Nallur Shivu</t>
-  </si>
-  <si>
-    <t>23 years experience overall</t>
-  </si>
-  <si>
-    <t>Kauvery Hospitals</t>
-  </si>
-  <si>
-    <t>₹900</t>
-  </si>
-  <si>
-    <t>Available Tomorrow</t>
-  </si>
-  <si>
-    <t>Dr. Jai Babu</t>
-  </si>
-  <si>
-    <t>21 years experience overall</t>
-  </si>
-  <si>
-    <t>Altius Hospitals</t>
-  </si>
-  <si>
-    <t>₹1000</t>
-  </si>
-  <si>
-    <t>Dr. Jayaranganath M</t>
-  </si>
-  <si>
-    <t>36 years experience overall</t>
-  </si>
-  <si>
-    <t>Apollo Hospitals</t>
-  </si>
-  <si>
-    <t>₹950</t>
-  </si>
-  <si>
-    <t>Dr. C.M Nagesh</t>
-  </si>
-  <si>
-    <t>Apollo Hospital</t>
-  </si>
-  <si>
-    <t>Dr. Sunil Kumar S</t>
-  </si>
-  <si>
-    <t>20 years experience overall</t>
+    <t>Aster CMI Hospital</t>
+  </si>
+  <si>
+    <t>₹1100</t>
   </si>
 </sst>
 </file>
@@ -207,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +232,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,19 +264,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -527,7 +567,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,118 +575,101 @@
     <col min="1" max="2" customWidth="true" width="30.08984375"/>
     <col min="3" max="3" customWidth="true" width="32.0"/>
     <col min="4" max="4" customWidth="true" width="14.7265625"/>
-    <col min="5" max="5" customWidth="true" width="14.54296875"/>
+    <col min="5" max="5" customWidth="true" width="24.36328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -703,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AED925-9DBA-4073-BF1E-F2C25D691A00}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,105 +737,201 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
         <v>22</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s" s="0">
         <v>24</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s" s="0">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s" s="0">
         <v>26</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s" s="0">
         <v>27</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s" s="0">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0ABA1F2-239B-4A65-8458-5596138AE4FA}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.6328125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>9122785643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{447FBEC1-34E4-455D-8281-A03974C4BEA1}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{25673B7A-F5F2-4CBE-8574-C53C87F68D22}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2D2DF1-6145-4588-856B-B73EAFA67856}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="35.81640625"/>
+    <col min="2" max="2" customWidth="true" width="43.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/test-classes/data.xlsx
+++ b/target/test-classes/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
   <si>
     <t>displays the first five Doctors</t>
   </si>
